--- a/biology/Médecine/CIM-10_Chapitre_04___Maladies_endocriniennes,_nutritionnelles_et_métaboliques/CIM-10_Chapitre_04___Maladies_endocriniennes,_nutritionnelles_et_métaboliques.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_04___Maladies_endocriniennes,_nutritionnelles_et_métaboliques/CIM-10_Chapitre_04___Maladies_endocriniennes,_nutritionnelles_et_métaboliques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le Chapitre 04 : Maladies endocriniennes, nutritionnelles et métaboliques de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le Chapitre 04 : Maladies endocriniennes, nutritionnelles et métaboliques de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(E00-E07) Affections de la glande thyroïde
-(E00) Syndrome d'insuffisance thyroïdienne congénitale
+          <t>(E00-E07) Affections de la glande thyroïde</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(E00) Syndrome d'insuffisance thyroïdienne congénitale
 (E00.0) Syndrome d'insuffisance thyroïdienne congénitale de type neurologique
 (E00.1) Syndrome d'insuffisance thyroïdienne congénitale de type myxœdémateux
 (E00.2) Syndrome d'insuffisance thyroïdienne congénitale de type mixte
@@ -561,9 +578,43 @@
 (E07.0) Hypersécrétion de calcitonine
 (E07.1) Goitre dû à un trouble de l'hormonosynthèse
 (E07.8) Autres affections précisées de la thyroïde
-(E07.9) Affection de la thyroïde, sans précision
-(E10-E14) Diabète sucré
-(E10.-) Diabète sucré insulino-dépendant
+(E07.9) Affection de la thyroïde, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(E10-E14) Diabète sucré</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(E10.-) Diabète sucré insulino-dépendant
 (E11.-) Diabète sucré non insulino-dépendant
 (E12.-) Diabète sucré de malnutrition
 (E13.-) Autres diabètes sucrés précisés
@@ -578,18 +629,86 @@
 (.6) Avec autres complications précisées
 (.7) Avec complications multiples
 (.8) Avec complications non précisées
-(.9) Sans complication
-(E15-E16) Autres anomalies de la régulation du glucose et de la sécrétion pancréatique interne
-(E15) Coma hypoglycémique non diabétique
+(.9) Sans complication</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(E15-E16) Autres anomalies de la régulation du glucose et de la sécrétion pancréatique interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(E15) Coma hypoglycémique non diabétique
 (E16) Autres anomalies de la sécrétion pancréatique interne
 (E16.0) Hypoglycémie médicamenteuse, sans coma
 (E16.1) Autres hypoglycémies
 (E16.2) Hypoglycémie, sans précision
 (E16.3) Hypersécrétion de glucagon
 (E16.8) Autres anomalies précisées de la sécrétion pancréatique interne
-(E16.9) Anomalie de la régulation de la sécrétion pancréatique interne, sans précision
-(E20-E35) Maladie des autres glandes endocrine
-(E20) Hypoparathyroïdie
+(E16.9) Anomalie de la régulation de la sécrétion pancréatique interne, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(E20-E35) Maladie des autres glandes endocrine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(E20) Hypoparathyroïdie
 (E20.0) Hypoparathyroïdie idiopathique
 (E20.1) Pseudohypoparathyroïdie
 (E20.8) Autres hypoparathyroïdies
@@ -679,9 +798,43 @@
 (E35*) Anomalies endocriniennes au cours de maladies classées ailleurs
 (E35.0*) Anomalies de la glande thyroïde au cours de maladies classées ailleurs
 (E35.1*) Anomalies de la glande surrénale au cours de maladies classées ailleurs
-(E35.8*) Anomalies d'autres glandes endocrines au cours de maladies classées ailleurs
-(E40-E46) Malnutrition
-(E40) Kwashiorkor
+(E35.8*) Anomalies d'autres glandes endocrines au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(E40-E46) Malnutrition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(E40) Kwashiorkor
 (E41) Marasme nutritionnel
 (E42) Kwashiorkor avec marasme
 (E43) Malnutrition protéino-énergétique grave, sans précision
@@ -689,9 +842,43 @@
 (E44.0) Malnutrition protéino-énergétique modérée
 (E44.1) Malnutrition protéino-énergétique légère
 (E45) Retard de développement après malnutrition protéino-énergétique
-(E46) Malnutrition protéino-énergétique, sans précision
-(E50-E64) Autres carences nutritionnelles
-(E50) Avitaminose A
+(E46) Malnutrition protéino-énergétique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(E50-E64) Autres carences nutritionnelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(E50) Avitaminose A
 (E50.0) Avitaminose A avec xérosis conjonctival
 (E50.1) Avitaminose A avec taches de Bitot et xérosis conjonctival
 (E50.2) Avitaminose A avec xérosis cornéen
@@ -747,9 +934,43 @@
 (E64.2) Séquelles d'avitaminose C
 (E64.3) Séquelles de rachitisme
 (E64.8) Séquelles d'autres carences nutritionnelles
-(E64.9) Séquelles d'une carence nutritionnelle non précisée
-(E65-E68) Obésité et autres excès d'apport
-(E65) Adiposité localisée
+(E64.9) Séquelles d'une carence nutritionnelle non précisée</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(E65-E68) Obésité et autres excès d'apport</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(E65) Adiposité localisée
 (E66) Obésité
 (E66.0) Obésité due à un excès calorique
 (E66.1) Obésité médicamenteuse
@@ -762,9 +983,43 @@
 (E67.2) Syndrome d'hypervitaminose B 6
 (E67.3) Hypervitaminose D
 (E67.8) Autres excès précisés d'apport
-(E68) Séquelles d'excès d'apport
-(E70-E90) Anomalies du métabolisme
-(E70) Troubles du métabolisme des acides aminés aromatiques
+(E68) Séquelles d'excès d'apport</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_métaboliques</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_04_:_Maladies_endocriniennes,_nutritionnelles_et_m%C3%A9taboliques</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(E70-E90) Anomalies du métabolisme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(E70) Troubles du métabolisme des acides aminés aromatiques
 (E70.0) Phénylcétonurie classique
 (E70.1) Autres hyperphénylalaninémies
 (E70.2) Troubles du métabolisme de la tyrosine
